--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value65.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value65.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6833789414326797</v>
+        <v>1.71927011013031</v>
       </c>
       <c r="B1">
-        <v>1.259257158950839</v>
+        <v>1.620960116386414</v>
       </c>
       <c r="C1">
-        <v>2.075595903569802</v>
+        <v>2.040859937667847</v>
       </c>
       <c r="D1">
-        <v>2.39353373733554</v>
+        <v>1.870934963226318</v>
       </c>
       <c r="E1">
-        <v>2.636572867113458</v>
+        <v>2.818394660949707</v>
       </c>
     </row>
   </sheetData>
